--- a/instrumentos.xlsx
+++ b/instrumentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelinosanchezrodriguez/itamRepositories/SEMESTRE_10_REPO/PAMI_REPO/PAMI.proyectoFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E77323E8-6CFE-6F4A-8BE1-88CF8A83EC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9317039A-D04E-5D4A-937E-722971C9A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:S71"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5572,7 +5572,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E2:F5"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="134" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
